--- a/InputData/elec/RM/Reserve Margin.xlsx
+++ b/InputData/elec/RM/Reserve Margin.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\RM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\RM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AB036E3-7829-48EA-BE4A-5C1DFB85EA01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="11580"/>
+    <workbookView xWindow="51045" yWindow="300" windowWidth="15165" windowHeight="13905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="RM" sheetId="2" r:id="rId2"/>
+    <sheet name="Texas Notes" sheetId="3" r:id="rId2"/>
+    <sheet name="RM" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>RM Reserve Margin</t>
   </si>
@@ -56,13 +68,28 @@
   </si>
   <si>
     <t>(dimensionless)</t>
+  </si>
+  <si>
+    <t>https://www.nerc.com/pa/RAPA/ra/Reliability%20Assessments%20DL/NERC_SRA_2019.pdf</t>
+  </si>
+  <si>
+    <t>NERC Summer Reliabilty Assessment, June 2019</t>
+  </si>
+  <si>
+    <t>Note that each nerc region has its own reference margin.</t>
+  </si>
+  <si>
+    <t>ERCOT's reference margin is 14%</t>
+  </si>
+  <si>
+    <t>That 14% is also used by VCE's WISdom model.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +101,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,18 +131,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -121,6 +159,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Summer 2019 reference margins and anticipated reserve margins in select NERC regions">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8BB4D29-0654-4265-AF2A-FC26D8C57006}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="266700" y="695325"/>
+          <a:ext cx="5476875" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -199,6 +303,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -234,6 +355,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,11 +547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -478,14 +616,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79450A7B-D49E-442B-BC03-093C5271FFE5}">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.nerc.com/pa/RAPA/ra/Reliability Assessments DL/NERC_SRA_2019.pdf" xr:uid="{58C08398-5B43-4580-8C60-3E13F17815BF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -611,112 +793,147 @@
         <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>0.14119999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C2" s="3">
-        <v>0.14119999999999999</v>
+        <f>B2</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" ref="D2:AK2" si="0">C2</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="X2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Z2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AA2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AB2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AC2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AD2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AE2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AG2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AH2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AI2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AJ2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AK2" s="3">
-        <v>0.14119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/RM/Reserve Margin.xlsx
+++ b/InputData/elec/RM/Reserve Margin.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\RM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\RM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AB036E3-7829-48EA-BE4A-5C1DFB85EA01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51045" yWindow="300" windowWidth="15165" windowHeight="13905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Texas Notes" sheetId="3" r:id="rId2"/>
-    <sheet name="RM" sheetId="2" r:id="rId3"/>
+    <sheet name="RM" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>RM Reserve Margin</t>
   </si>
@@ -68,28 +56,13 @@
   </si>
   <si>
     <t>(dimensionless)</t>
-  </si>
-  <si>
-    <t>https://www.nerc.com/pa/RAPA/ra/Reliability%20Assessments%20DL/NERC_SRA_2019.pdf</t>
-  </si>
-  <si>
-    <t>NERC Summer Reliabilty Assessment, June 2019</t>
-  </si>
-  <si>
-    <t>Note that each nerc region has its own reference margin.</t>
-  </si>
-  <si>
-    <t>ERCOT's reference margin is 14%</t>
-  </si>
-  <si>
-    <t>That 14% is also used by VCE's WISdom model.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,14 +74,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,21 +96,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -159,72 +121,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Summer 2019 reference margins and anticipated reserve margins in select NERC regions">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8BB4D29-0654-4265-AF2A-FC26D8C57006}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="266700" y="695325"/>
-          <a:ext cx="5476875" cy="2733675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -303,23 +199,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -355,23 +234,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,11 +409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -616,58 +478,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79450A7B-D49E-442B-BC03-093C5271FFE5}">
-  <dimension ref="A1:A22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://www.nerc.com/pa/RAPA/ra/Reliability Assessments DL/NERC_SRA_2019.pdf" xr:uid="{58C08398-5B43-4580-8C60-3E13F17815BF}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -793,147 +611,112 @@
         <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="C2" s="3">
-        <f>B2</f>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:AK2" si="0">C2</f>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="K2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="M2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="N2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="O2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="P2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="Q2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="R2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="S2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="T2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="U2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="V2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="W2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="X2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="Y2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="Z2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AA2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AB2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AC2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AD2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AE2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AF2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AG2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AH2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AI2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AJ2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="AK2" s="3">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.14119999999999999</v>
       </c>
     </row>
   </sheetData>
